--- a/IntArithmetic/time comparison.xlsx
+++ b/IntArithmetic/time comparison.xlsx
@@ -1,43 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18975" windowHeight="8640"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Karatsuba (ms)</t>
+    <t>Tamaño (dígitos)</t>
   </si>
   <si>
     <t>Escolar (ms)</t>
   </si>
   <si>
-    <t>Tamaño (dígitos)</t>
+    <t>Karatsuba (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +74,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -57,30 +82,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFBE4B48"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -93,14 +206,1526 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="be4b48"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="be4b48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="70"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="71"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="72"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="73"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="74"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="75"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="77"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="78"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="79"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="80"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="81"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="82"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="83"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="84"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="85"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="86"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="87"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="89"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="90"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="91"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="92"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="93"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="94"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="97"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="98"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="99"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="101"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="102"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="103"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="104"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="105"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="106"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="107"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="108"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="109"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="110"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="111"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="112"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="113"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="114"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="115"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="116"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="117"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="118"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="119"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="120"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="121"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="122"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="123"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="124"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="125"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="126"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="127"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="128"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="129"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="130"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="131"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="132"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="133"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="134"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="135"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="136"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="137"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="138"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="139"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="140"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="141"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="142"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="143"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="144"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="145"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="146"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="147"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="148"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="149"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$5:$A$154</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -552,8 +2177,8 @@
                 <c:pt idx="149">
                   <c:v>29900</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1016,7 +2641,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1029,9 +2654,1980 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="70"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="71"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="72"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="73"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="74"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="75"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="77"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="78"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="79"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="80"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="81"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="82"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="83"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="84"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="85"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="86"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="87"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="89"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="90"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="91"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="92"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="93"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="94"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="97"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="98"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="99"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="101"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="102"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="103"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="104"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="105"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="106"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="107"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="108"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="109"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="110"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="111"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="112"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="113"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="114"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="115"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="116"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="117"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="118"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="119"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="120"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="121"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="122"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="123"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="124"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="125"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="126"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="127"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="128"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="129"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="130"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="131"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="132"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="133"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="134"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="135"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="136"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="137"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="138"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="139"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="140"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="141"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="142"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="143"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="144"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="145"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="146"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="147"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="148"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="149"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$154</c:f>
+              <c:strCache>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14900</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18900</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19700</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21700</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21900</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>22100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23100</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23300</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>23700</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23900</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24100</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24300</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>24700</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>24900</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>25100</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25300</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>25700</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26100</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26300</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>26700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26900</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27300</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27700</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27900</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>28100</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>28300</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29300</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29700</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29900</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$5:$C$154</c:f>
@@ -1492,75 +5088,118 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="76280192"/>
-        <c:axId val="76281728"/>
+        <c:marker val="0"/>
+        <c:axId val="24157"/>
+        <c:axId val="20619"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76280192"/>
+        <c:axId val="24157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76281728"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="20619"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76281728"/>
+        <c:axId val="20619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76280192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="24157"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>322200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="0" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5010840" y="66600"/>
+        <a:ext cx="6050880" cy="4048200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1573,1991 +5212,1746 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A4:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J24" activeCellId="0" pane="topLeft" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>552</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
         <v>1700</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
         <v>1900</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
         <v>2100</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>668</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
         <v>2300</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
         <v>2700</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
         <v>2900</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>688</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
         <v>3100</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
         <v>3300</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
         <v>3500</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>683</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="n">
         <v>3700</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>423</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="n">
         <v>3900</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>476</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="n">
         <v>4100</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="n">
         <v>4300</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>591</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>2073</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="n">
         <v>4500</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="n">
         <v>4700</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>669</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="n">
         <v>4900</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>734</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>2059</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="n">
         <v>5100</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>797</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>2004</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="n">
         <v>5300</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>851</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="0" t="n">
         <v>5500</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>915</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="n">
         <v>5700</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>993</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>2031</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="n">
         <v>5900</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>1097</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="n">
         <v>6100</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>1129</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>2036</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="n">
         <v>6300</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>1228</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>2150</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="n">
         <v>6500</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>1409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>2426</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="n">
         <v>6700</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>1813</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>2435</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="n">
         <v>6900</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>1570</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>2339</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="n">
         <v>7100</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>1578</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>2137</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="n">
         <v>7300</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>1960</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>2194</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="n">
         <v>7500</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>1741</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>2043</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="n">
         <v>7700</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>1871</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>2102</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="n">
         <v>7900</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>1924</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>2066</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="n">
         <v>8100</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>2098</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="n">
         <v>8300</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>2114</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>5942</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="n">
         <v>8500</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>2257</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>6367</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="n">
         <v>8700</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>2653</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>6787</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="n">
         <v>8900</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>3230</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>6049</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="n">
         <v>9100</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>2588</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>6501</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="n">
         <v>9300</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>2625</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>5989</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="0" t="n">
         <v>9500</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>2730</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>5971</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="0" t="n">
         <v>9700</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>2862</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>5947</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="0" t="n">
         <v>9900</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>3016</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>6105</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="0" t="n">
         <v>10100</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>3155</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>6087</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="A56" s="0" t="n">
         <v>10300</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>3280</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>6189</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="A57" s="0" t="n">
         <v>10500</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>3402</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>6047</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="A58" s="0" t="n">
         <v>10700</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>3560</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>6079</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="A59" s="0" t="n">
         <v>10900</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>3662</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>6099</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="n">
         <v>11100</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>3791</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>6046</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="A61" s="0" t="n">
         <v>11300</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>3938</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="A62" s="0" t="n">
         <v>11500</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>4043</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>6184</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="0" t="n">
         <v>11700</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>4258</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6101</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="0" t="n">
         <v>11900</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>4357</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>6093</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="0" t="n">
         <v>12100</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>4624</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6155</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="0" t="n">
         <v>12300</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>4620</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>6071</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="0" t="n">
         <v>12500</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>4815</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>6197</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="0" t="n">
         <v>12700</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>4885</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>6094</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="A69" s="0" t="n">
         <v>12900</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>5002</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>6114</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="A70" s="0" t="n">
         <v>13100</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>5207</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>6104</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="A71" s="0" t="n">
         <v>13300</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>5420</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>6090</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="A72" s="0" t="n">
         <v>13500</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>5568</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>6225</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73">
+      <c r="A73" s="0" t="n">
         <v>13700</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>5766</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>6182</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74">
+      <c r="A74" s="0" t="n">
         <v>13900</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>6492</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>6184</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75">
+      <c r="A75" s="0" t="n">
         <v>14100</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>6048</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>6223</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76">
+      <c r="A76" s="0" t="n">
         <v>14300</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>6284</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>6213</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
+      <c r="A77" s="0" t="n">
         <v>14500</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>6664</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>6213</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78">
+      <c r="A78" s="0" t="n">
         <v>14700</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>6580</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>6091</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79">
+      <c r="A79" s="0" t="n">
         <v>14900</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>6824</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>6113</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
+      <c r="A80" s="0" t="n">
         <v>15100</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>7082</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>6138</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
+      <c r="A81" s="0" t="n">
         <v>15300</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>7171</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>6258</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
+      <c r="A82" s="0" t="n">
         <v>15500</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>7400</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>6193</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
+      <c r="A83" s="0" t="n">
         <v>15700</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>7481</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>6236</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
+      <c r="A84" s="0" t="n">
         <v>15900</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>7762</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>6203</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
+      <c r="A85" s="0" t="n">
         <v>16100</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>8039</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>6181</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
+      <c r="A86" s="0" t="n">
         <v>16300</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>8336</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>6094</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
+      <c r="A87" s="0" t="n">
         <v>16500</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>8281</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>19918</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="88">
+      <c r="A88" s="0" t="n">
         <v>16700</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>10449</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>18467</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89">
+      <c r="A89" s="0" t="n">
         <v>16900</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>8547</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>18009</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90">
+      <c r="A90" s="0" t="n">
         <v>17100</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>9007</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>17988</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91">
+      <c r="A91" s="0" t="n">
         <v>17300</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>9279</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>18398</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92">
+      <c r="A92" s="0" t="n">
         <v>17500</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>10376</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>21833</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
+      <c r="A93" s="0" t="n">
         <v>17700</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>11707</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>18348</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
+      <c r="A94" s="0" t="n">
         <v>17900</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>9760</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>18115</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95">
+      <c r="A95" s="0" t="n">
         <v>18100</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>10051</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>18335</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
+      <c r="A96" s="0" t="n">
         <v>18300</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>11286</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>17975</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97">
+      <c r="A97" s="0" t="n">
         <v>18500</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>11535</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>22077</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
+      <c r="A98" s="0" t="n">
         <v>18700</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>12598</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>18181</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="A99" s="0" t="n">
         <v>18900</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>18216</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="A100" s="0" t="n">
         <v>19100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>11182</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>18192</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101">
+      <c r="A101" s="0" t="n">
         <v>19300</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>11634</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>19324</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102">
+      <c r="A102" s="0" t="n">
         <v>19500</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>14529</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>22072</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103">
+      <c r="A103" s="0" t="n">
         <v>19700</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>11958</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>18124</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104">
+      <c r="A104" s="0" t="n">
         <v>19900</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>12063</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>18341</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105">
+      <c r="A105" s="0" t="n">
         <v>20100</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>13736</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>22081</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106">
+      <c r="A106" s="0" t="n">
         <v>20300</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>15434</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>18290</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107">
+      <c r="A107" s="0" t="n">
         <v>20500</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>12662</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>18140</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108">
+      <c r="A108" s="0" t="n">
         <v>20700</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>12937</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>18161</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109">
+      <c r="A109" s="0" t="n">
         <v>20900</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>13558</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>22189</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110">
+      <c r="A110" s="0" t="n">
         <v>21100</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>16303</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>18933</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111">
+      <c r="A111" s="0" t="n">
         <v>21300</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>13714</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>18180</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112">
+      <c r="A112" s="0" t="n">
         <v>21500</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>14118</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>20612</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113">
+      <c r="A113" s="0" t="n">
         <v>21700</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>18085</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>18522</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114">
+      <c r="A114" s="0" t="n">
         <v>21900</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>14783</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>18248</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115">
+      <c r="A115" s="0" t="n">
         <v>22100</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>15053</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>19513</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116">
+      <c r="A116" s="0" t="n">
         <v>22300</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>18387</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>22079</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117">
+      <c r="A117" s="0" t="n">
         <v>22500</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>17573</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0" t="n">
         <v>18219</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118">
+      <c r="A118" s="0" t="n">
         <v>22700</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>15915</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0" t="n">
         <v>18367</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119">
+      <c r="A119" s="0" t="n">
         <v>22900</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>17102</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0" t="n">
         <v>22030</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120">
+      <c r="A120" s="0" t="n">
         <v>23100</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>19725</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0" t="n">
         <v>18523</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121">
+      <c r="A121" s="0" t="n">
         <v>23300</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>17534</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0" t="n">
         <v>21412</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122">
+      <c r="A122" s="0" t="n">
         <v>23500</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>16739</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0" t="n">
         <v>18209</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123">
+      <c r="A123" s="0" t="n">
         <v>23700</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>17811</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0" t="n">
         <v>22173</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124">
+      <c r="A124" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>21163</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0" t="n">
         <v>18585</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125">
+      <c r="A125" s="0" t="n">
         <v>24100</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>17672</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0" t="n">
         <v>18229</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126">
+      <c r="A126" s="0" t="n">
         <v>24300</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>18776</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0" t="n">
         <v>22207</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127">
+      <c r="A127" s="0" t="n">
         <v>24500</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>22504</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0" t="n">
         <v>19126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128">
+      <c r="A128" s="0" t="n">
         <v>24700</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>18760</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0" t="n">
         <v>18498</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129">
+      <c r="A129" s="0" t="n">
         <v>24900</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>22788</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0" t="n">
         <v>21468</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130">
+      <c r="A130" s="0" t="n">
         <v>25100</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>19433</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0" t="n">
         <v>18370</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131">
+      <c r="A131" s="0" t="n">
         <v>25300</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>23627</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0" t="n">
         <v>20935</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132">
+      <c r="A132" s="0" t="n">
         <v>25500</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>19590</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0" t="n">
         <v>18263</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133">
+      <c r="A133" s="0" t="n">
         <v>25700</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>21845</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0" t="n">
         <v>22191</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134">
+      <c r="A134" s="0" t="n">
         <v>25900</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>24770</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0" t="n">
         <v>18742</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135">
+      <c r="A135" s="0" t="n">
         <v>26100</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>21160</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0" t="n">
         <v>22417</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136">
+      <c r="A136" s="0" t="n">
         <v>26300</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>25580</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0" t="n">
         <v>18304</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137">
+      <c r="A137" s="0" t="n">
         <v>26500</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>23310</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0" t="n">
         <v>20437</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138">
+      <c r="A138" s="0" t="n">
         <v>26700</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>21811</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0" t="n">
         <v>18376</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139">
+      <c r="A139" s="0" t="n">
         <v>26900</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>25706</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0" t="n">
         <v>22391</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140">
+      <c r="A140" s="0" t="n">
         <v>27100</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>27287</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0" t="n">
         <v>18594</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141">
+      <c r="A141" s="0" t="n">
         <v>27300</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>22471</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0" t="n">
         <v>18629</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142">
+      <c r="A142" s="0" t="n">
         <v>27500</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>24969</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0" t="n">
         <v>22216</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143">
+      <c r="A143" s="0" t="n">
         <v>27700</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>27430</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0" t="n">
         <v>18168</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144">
+      <c r="A144" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>23808</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0" t="n">
         <v>19848</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145">
+      <c r="A145" s="0" t="n">
         <v>28100</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>29099</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0" t="n">
         <v>18584</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146">
+      <c r="A146" s="0" t="n">
         <v>28300</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>24672</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0" t="n">
         <v>18499</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147">
+      <c r="A147" s="0" t="n">
         <v>28500</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>26596</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0" t="n">
         <v>22638</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148">
+      <c r="A148" s="0" t="n">
         <v>28700</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>31280</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0" t="n">
         <v>22851</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149">
+      <c r="A149" s="0" t="n">
         <v>28900</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>25956</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0" t="n">
         <v>18538</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150">
+      <c r="A150" s="0" t="n">
         <v>29100</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>28087</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0" t="n">
         <v>21901</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151">
+      <c r="A151" s="0" t="n">
         <v>29300</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>26195</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0" t="n">
         <v>18553</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152">
+      <c r="A152" s="0" t="n">
         <v>29500</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>31064</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0" t="n">
         <v>21258</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153">
+      <c r="A153" s="0" t="n">
         <v>29700</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>27135</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0" t="n">
         <v>18565</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154">
+      <c r="A154" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>29327</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0" t="n">
         <v>22323</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>